--- a/GoWork/Tixing.xlsx
+++ b/GoWork/Tixing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14820" windowHeight="11711"/>
+    <workbookView windowWidth="15360" windowHeight="13404"/>
   </bookViews>
   <sheets>
     <sheet name="huayu" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>角色</t>
   </si>
@@ -28,6 +28,9 @@
     <t>图片位置</t>
   </si>
   <si>
+    <t>配音</t>
+  </si>
+  <si>
     <t>林欣欣</t>
   </si>
   <si>
@@ -40,16 +43,22 @@
     <t>GoWork\icons\111~1.ico</t>
   </si>
   <si>
-    <t>顾诗琴</t>
+    <t>GoWork\peiyin\1.wav</t>
   </si>
   <si>
     <t>对着你摇了摇头</t>
   </si>
   <si>
-    <t>同志，如果我们继续这样无所事事，我们是无法让人们获得解放的。</t>
-  </si>
-  <si>
-    <t>GoWork\icons\shiqin2.ico</t>
+    <t>同志，继续这样无所事事，我们是无法让人们获得解放的。</t>
+  </si>
+  <si>
+    <t>GoWork\peiyin\2.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1017,15 +1026,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,33 +1047,52 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+    <row r="14" spans="6:6">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
